--- a/RapidMiner/classification_results/Evaluation_latex.xlsx
+++ b/RapidMiner/classification_results/Evaluation_latex.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
   <si>
     <t>Positive</t>
   </si>
@@ -41,6 +41,15 @@
   </si>
   <si>
     <t xml:space="preserve">KNN 50 </t>
+  </si>
+  <si>
+    <t>KNN 50</t>
+  </si>
+  <si>
+    <t>Pos</t>
+  </si>
+  <si>
+    <t>Neg</t>
   </si>
 </sst>
 </file>
@@ -93,6 +102,484 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SVM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:ln w="19050">
+                  <a:solidFill>
+                    <a:srgbClr val="7030A0"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:marker>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="19050">
+                  <a:solidFill>
+                    <a:srgbClr val="7030A0"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:marker>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$10:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$B$11:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Naive Bayes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:ln w="19050">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:marker>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="19050">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:marker>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$10:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$D$11:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>50-NN Basic</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:ln w="19050">
+                  <a:solidFill>
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:marker>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="19050">
+                  <a:solidFill>
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:marker>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$F$10:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$F$11:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>50-NN Weighted</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:ln w="19050" cmpd="sng">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:marker>
+            <c:spPr>
+              <a:ln w="28575">
+                <a:solidFill>
+                  <a:srgbClr val="C0504D"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:ln w="19050">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:ln>
+              </c:spPr>
+            </c:marker>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$H$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$H$11:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="73144192"/>
+        <c:axId val="73142272"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="73144192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Precision</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73142272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="73142272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Recall</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="73144192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>284163</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>227013</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>90486</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="I3" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -391,7 +878,7 @@
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -404,7 +891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -418,7 +905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -438,7 +925,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -458,7 +945,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -479,7 +966,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -499,11 +986,118 @@
         <v>0.75</v>
       </c>
     </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>0.34</v>
+      </c>
+      <c r="C10">
+        <v>0.66</v>
+      </c>
+      <c r="D10">
+        <v>0.33</v>
+      </c>
+      <c r="E10">
+        <v>0.67</v>
+      </c>
+      <c r="F10">
+        <v>0.64</v>
+      </c>
+      <c r="G10">
+        <v>0.88</v>
+      </c>
+      <c r="H10">
+        <v>0.71</v>
+      </c>
+      <c r="I10">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>0.75</v>
+      </c>
+      <c r="C11">
+        <v>0.25</v>
+      </c>
+      <c r="D11">
+        <v>0.75</v>
+      </c>
+      <c r="E11">
+        <v>0.25</v>
+      </c>
+      <c r="F11">
+        <v>0.92</v>
+      </c>
+      <c r="G11">
+        <v>0.75</v>
+      </c>
+      <c r="H11">
+        <v>0.63</v>
+      </c>
+      <c r="I11">
+        <v>0.88</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
+    <mergeCell ref="H8:I8"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/RapidMiner/classification_results/Evaluation_latex.xlsx
+++ b/RapidMiner/classification_results/Evaluation_latex.xlsx
@@ -542,7 +542,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -551,16 +551,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>284163</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>42861</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>508281</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>65273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>227013</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>90486</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>316660</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>112898</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I3" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/RapidMiner/classification_results/Evaluation_latex.xlsx
+++ b/RapidMiner/classification_results/Evaluation_latex.xlsx
@@ -117,7 +117,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>SVM</c:v>
+            <c:v>SVM (Acc.: 50.0%)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575">
@@ -201,7 +201,7 @@
           <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Naive Bayes</c:v>
+            <c:v>Naive Bayes (Acc.: 50%)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575">
@@ -252,6 +252,10 @@
               </c:spPr>
             </c:marker>
           </c:dPt>
+          <c:dLbls>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Tabelle1!$D$10:$E$10</c:f>
@@ -287,7 +291,7 @@
           <c:idx val="4"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>50-NN Basic</c:v>
+            <c:v>50-NN Basic (Acc.: 81.3%)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575">
@@ -344,6 +348,21 @@
               </c:spPr>
             </c:marker>
           </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.4436548925328883E-2"/>
+                  <c:y val="-3.864734299516908E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+            </c:dLbl>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Tabelle1!$F$10:$G$10</c:f>
@@ -379,7 +398,7 @@
           <c:idx val="6"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>50-NN Weighted</c:v>
+            <c:v>50-NN Weighted (Acc.: 75.0%)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575">
@@ -437,6 +456,10 @@
               </c:spPr>
             </c:marker>
           </c:dPt>
+          <c:dLbls>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Tabelle1!$H$10:$I$10</c:f>
@@ -468,11 +491,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="73144192"/>
-        <c:axId val="73142272"/>
+        <c:axId val="95293824"/>
+        <c:axId val="95296128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="73144192"/>
+        <c:axId val="95293824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -497,12 +520,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73142272"/>
+        <c:crossAx val="95296128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73142272"/>
+        <c:axId val="95296128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -528,7 +551,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73144192"/>
+        <c:crossAx val="95293824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -541,7 +564,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -869,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
